--- a/Table of BART Model Runs.xlsx
+++ b/Table of BART Model Runs.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="6630"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="BART 1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="63">
   <si>
     <t>F</t>
   </si>
@@ -101,9 +101,6 @@
   </si>
   <si>
     <t>Big Transfers</t>
-  </si>
-  <si>
-    <t>Muni 38R, Two-Block pedestrian tunnel to future Union Square Central Subway Station</t>
   </si>
   <si>
     <t>Muni T</t>
@@ -747,7 +744,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -809,7 +806,6 @@
     <xf numFmtId="165" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="18" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -952,23 +948,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1004,23 +983,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1175,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1189,13 +1151,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="A1" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="1:8" ht="58.5" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
@@ -1219,14 +1181,14 @@
         <v>12</v>
       </c>
       <c r="B3" s="16"/>
-      <c r="C3" s="16">
+      <c r="C3" s="23">
         <v>-122.433080914</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="23">
         <v>37.784603918199998</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1245,14 +1207,14 @@
         <v>14</v>
       </c>
       <c r="B5" s="5"/>
-      <c r="C5" s="5">
+      <c r="C5" s="23">
         <v>-122.42164660500001</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="23">
         <v>37.785523699099997</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1260,7 +1222,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="7">
-        <v>66.252748599</v>
+        <v>53.976391247000002</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -1274,14 +1236,14 @@
         <v>13</v>
       </c>
       <c r="B7" s="5"/>
-      <c r="C7" s="5">
+      <c r="C7" s="23">
         <v>-122.409733628</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="23">
         <v>37.7872770098</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -1292,7 +1254,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="7">
-        <v>57.873308506199997</v>
+        <v>58.737731822000008</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -1306,14 +1268,14 @@
         <v>11</v>
       </c>
       <c r="B9" s="5"/>
-      <c r="C9" s="5">
+      <c r="C9" s="23">
         <v>-122.400657</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="23">
         <v>37.784987373100002</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -1324,7 +1286,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="7">
-        <v>59.5787497528</v>
+        <v>61.109626526899994</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -1338,14 +1300,14 @@
         <v>10</v>
       </c>
       <c r="B11" s="5"/>
-      <c r="C11" s="5">
+      <c r="C11" s="23">
         <v>-122.392732752</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="23">
         <v>37.779053234099997</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -1356,7 +1318,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="7">
-        <v>42.667951252800002</v>
+        <v>53.436624154500002</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -1370,14 +1332,14 @@
         <v>15</v>
       </c>
       <c r="B13" s="5"/>
-      <c r="C13" s="5">
+      <c r="C13" s="23">
         <v>-122.38964894599999</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="23">
         <v>37.773673676999998</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1388,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="B14" s="7">
-        <v>578.44252876999997</v>
+        <v>563.47659961499994</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -1402,14 +1364,14 @@
         <v>16</v>
       </c>
       <c r="B15" s="5"/>
-      <c r="C15" s="5">
+      <c r="C15" s="23">
         <v>-122.29152271300001</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="23">
         <v>37.780104802700002</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1420,7 +1382,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="7">
-        <v>187.302316918</v>
+        <v>199.02173815800001</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -1434,14 +1396,14 @@
         <v>17</v>
       </c>
       <c r="B17" s="5"/>
-      <c r="C17" s="5">
+      <c r="C17" s="23">
         <v>-122.275174114</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="23">
         <v>37.795151707800002</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1452,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="7">
-        <v>64.382808210799993</v>
+        <v>66.389600922669999</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -1466,14 +1428,14 @@
         <v>18</v>
       </c>
       <c r="B19" s="5"/>
-      <c r="C19" s="5">
+      <c r="C19" s="23">
         <v>-122.26929957599999</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="23">
         <v>37.805076731200003</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -1484,7 +1446,7 @@
         <v>21</v>
       </c>
       <c r="B20" s="7">
-        <v>176.63898822600001</v>
+        <v>176.901502604</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -1498,7 +1460,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="12">
-        <v>329.05456725599998</v>
+        <v>317.06451135100002</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
@@ -1569,8 +1531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E23" sqref="E17:E23"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1583,13 +1545,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="A1" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="1:8" ht="58.5" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
@@ -1613,14 +1575,14 @@
         <v>12</v>
       </c>
       <c r="B3" s="25"/>
-      <c r="C3" s="25">
+      <c r="C3" s="23">
         <v>-122.433080914</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="23">
         <v>37.784603918199998</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1628,7 +1590,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="33">
-        <v>63.808516453899998</v>
+        <v>68.452786639700008</v>
       </c>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
@@ -1639,14 +1601,14 @@
         <v>14</v>
       </c>
       <c r="B5" s="36"/>
-      <c r="C5" s="25">
+      <c r="C5" s="23">
         <v>-122.42164660500001</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="23">
         <v>37.785523699099997</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1654,7 +1616,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="33">
-        <v>63.952699999999993</v>
+        <v>59.723948348099995</v>
       </c>
       <c r="C6" s="28"/>
       <c r="D6" s="28"/>
@@ -1665,17 +1627,17 @@
     </row>
     <row r="7" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="36"/>
+      <c r="C7" s="23">
+        <v>-122.415320231</v>
+      </c>
+      <c r="D7" s="23">
+        <v>37.780745770300001</v>
+      </c>
+      <c r="E7" s="29" t="s">
         <v>39</v>
-      </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="25">
-        <v>-122.415320231</v>
-      </c>
-      <c r="D7" s="25">
-        <v>37.780745770300001</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>40</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -1686,7 +1648,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="33">
-        <v>39.630900000000004</v>
+        <v>38.561802743299999</v>
       </c>
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
@@ -1697,17 +1659,17 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" s="36"/>
-      <c r="C9" s="25">
+      <c r="C9" s="23">
         <v>-122.411633937</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="23">
         <v>37.776254954400002</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -1718,7 +1680,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="33">
-        <v>68.506299999999996</v>
+        <v>68.66704844169999</v>
       </c>
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
@@ -1729,17 +1691,17 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" s="36"/>
-      <c r="C11" s="25">
+      <c r="C11" s="23">
         <v>-122.401849454</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D11" s="23">
         <v>37.7741419476</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -1750,7 +1712,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="33">
-        <v>49.523600000000009</v>
+        <v>50.129268556999996</v>
       </c>
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
@@ -1761,17 +1723,17 @@
     </row>
     <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" s="36"/>
-      <c r="C13" s="25">
+      <c r="C13" s="23">
         <v>-122.39536519000001</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="23">
         <v>37.779278226599999</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1782,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="B14" s="33">
-        <v>588.87530000000004</v>
+        <v>579.35369184800004</v>
       </c>
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
@@ -1796,14 +1758,14 @@
         <v>16</v>
       </c>
       <c r="B15" s="5"/>
-      <c r="C15" s="25">
+      <c r="C15" s="23">
         <v>-122.29418111299999</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D15" s="23">
         <v>37.780572864100002</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1814,7 +1776,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="32">
-        <v>143.7473</v>
+        <v>145.276585813</v>
       </c>
       <c r="C16" s="28"/>
       <c r="D16" s="28"/>
@@ -1825,17 +1787,17 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" s="5"/>
-      <c r="C17" s="25">
+      <c r="C17" s="23">
         <v>-122.28237170600001</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D17" s="23">
         <v>37.797110698300003</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1843,10 +1805,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B18" s="32">
-        <v>47.432299999999998</v>
+        <v>87.233115357499997</v>
       </c>
       <c r="C18" s="28"/>
       <c r="D18" s="28"/>
@@ -1857,17 +1819,17 @@
     </row>
     <row r="19" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B19" s="25"/>
-      <c r="C19" s="25">
+      <c r="C19" s="23">
         <v>-122.271412481</v>
       </c>
-      <c r="D19" s="25">
+      <c r="D19" s="23">
         <v>37.801818998000002</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F19" s="23"/>
       <c r="G19" s="23"/>
@@ -1875,10 +1837,10 @@
     </row>
     <row r="20" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B20" s="32">
-        <v>102.09690000000001</v>
+        <v>105.178922652</v>
       </c>
       <c r="C20" s="28"/>
       <c r="D20" s="28"/>
@@ -1889,17 +1851,17 @@
     </row>
     <row r="21" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B21" s="25"/>
-      <c r="C21" s="25">
+      <c r="C21" s="23">
         <v>-122.25585007799999</v>
       </c>
-      <c r="D21" s="25">
+      <c r="D21" s="23">
         <v>37.794423123800001</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F21" s="23"/>
       <c r="G21" s="23"/>
@@ -1907,10 +1869,10 @@
     </row>
     <row r="22" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="32">
-        <v>216.30080000000001</v>
+        <v>52</v>
+      </c>
+      <c r="B22" s="23">
+        <v>212.75887727699998</v>
       </c>
       <c r="C22" s="28"/>
       <c r="D22" s="28"/>
@@ -1921,17 +1883,17 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23" s="5"/>
-      <c r="C23" s="25">
+      <c r="C23" s="23">
         <v>-122.27715219700001</v>
       </c>
-      <c r="D23" s="25">
+      <c r="D23" s="23">
         <v>37.806863805500001</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -1939,10 +1901,10 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="32">
-        <v>66.240399999999994</v>
+        <v>43</v>
+      </c>
+      <c r="B24" s="23">
+        <v>164.194113837</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -1953,10 +1915,10 @@
     </row>
     <row r="25" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B25" s="32">
-        <v>74.165999999999997</v>
+        <v>68.995648208000006</v>
       </c>
       <c r="C25" s="28"/>
       <c r="D25" s="28"/>
@@ -1997,7 +1959,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B34" s="23">
         <v>0.66240399999999999</v>
@@ -2008,7 +1970,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B35" s="23">
         <v>1.020969</v>
@@ -2019,7 +1981,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B36" s="23">
         <v>2.163008</v>
@@ -2030,7 +1992,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B37" s="23">
         <v>0.74165999999999999</v>
@@ -2089,32 +2051,32 @@
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="B2" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" style="40" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="39" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="50.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="A1" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="1:8" ht="58.5" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="37" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="20" t="s">
@@ -2131,15 +2093,15 @@
       <c r="A3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="16">
+      <c r="B3" s="38"/>
+      <c r="C3" s="23">
         <v>-122.433080914</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="23">
         <v>37.784603918199998</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2158,14 +2120,14 @@
         <v>14</v>
       </c>
       <c r="B5" s="34"/>
-      <c r="C5" s="5">
+      <c r="C5" s="23">
         <v>-122.42164660500001</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="23">
         <v>37.785523699099997</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -2175,8 +2137,8 @@
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="31">
-        <v>66.252748599</v>
+      <c r="B6" s="27">
+        <v>53.976391247000002</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -2189,15 +2151,15 @@
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="5">
+      <c r="B7" s="25"/>
+      <c r="C7" s="23">
         <v>-122.409733628</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="23">
         <v>37.7872770098</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -2207,8 +2169,8 @@
       <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="31">
-        <v>57.873308506199997</v>
+      <c r="B8" s="27">
+        <v>58.737731822000008</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -2221,15 +2183,15 @@
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="5">
+      <c r="B9" s="25"/>
+      <c r="C9" s="23">
         <v>-122.400657</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="23">
         <v>37.784987373100002</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -2239,8 +2201,8 @@
       <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="31">
-        <v>59.5787497528</v>
+      <c r="B10" s="27">
+        <v>61.109626526899994</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -2253,15 +2215,15 @@
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="5">
+      <c r="B11" s="25"/>
+      <c r="C11" s="23">
         <v>-122.392732752</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="23">
         <v>37.779053234099997</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -2271,8 +2233,8 @@
       <c r="A12" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="31">
-        <v>42.667951252800002</v>
+      <c r="B12" s="27">
+        <v>53.436624154500002</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -2286,14 +2248,14 @@
         <v>15</v>
       </c>
       <c r="B13" s="34"/>
-      <c r="C13" s="5">
+      <c r="C13" s="23">
         <v>-122.38964894599999</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="23">
         <v>37.773673676999998</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -2303,8 +2265,8 @@
       <c r="A14" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="31">
-        <v>578.44252876999997</v>
+      <c r="B14" s="27">
+        <v>563.47659961499994</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -2318,14 +2280,14 @@
         <v>16</v>
       </c>
       <c r="B15" s="34"/>
-      <c r="C15" s="25">
+      <c r="C15" s="23">
         <v>-122.29418111299999</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D15" s="23">
         <v>37.780572864100002</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -2335,8 +2297,8 @@
       <c r="A16" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="31">
-        <v>143.7473</v>
+      <c r="B16" s="32">
+        <v>145.276585813</v>
       </c>
       <c r="C16" s="28"/>
       <c r="D16" s="28"/>
@@ -2347,17 +2309,17 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="25">
+        <v>29</v>
+      </c>
+      <c r="B17" s="25"/>
+      <c r="C17" s="23">
         <v>-122.28237170600001</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D17" s="23">
         <v>37.797110698300003</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -2365,10 +2327,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="31">
-        <v>47.432299999999998</v>
+        <v>45</v>
+      </c>
+      <c r="B18" s="32">
+        <v>87.233115357499997</v>
       </c>
       <c r="C18" s="28"/>
       <c r="D18" s="28"/>
@@ -2379,17 +2341,17 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="25">
+        <v>44</v>
+      </c>
+      <c r="B19" s="25"/>
+      <c r="C19" s="23">
         <v>-122.271412481</v>
       </c>
-      <c r="D19" s="25">
+      <c r="D19" s="23">
         <v>37.801818998000002</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -2397,10 +2359,10 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="31">
-        <v>102.09690000000001</v>
+        <v>51</v>
+      </c>
+      <c r="B20" s="32">
+        <v>105.178922652</v>
       </c>
       <c r="C20" s="28"/>
       <c r="D20" s="28"/>
@@ -2411,17 +2373,17 @@
     </row>
     <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="25">
+        <v>50</v>
+      </c>
+      <c r="B21" s="25"/>
+      <c r="C21" s="23">
         <v>-122.25585007799999</v>
       </c>
-      <c r="D21" s="25">
+      <c r="D21" s="23">
         <v>37.794423123800001</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -2429,10 +2391,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="31">
-        <v>216.30080000000001</v>
+        <v>52</v>
+      </c>
+      <c r="B22" s="23">
+        <v>212.75887727699998</v>
       </c>
       <c r="C22" s="28"/>
       <c r="D22" s="28"/>
@@ -2441,19 +2403,19 @@
       <c r="G22" s="2"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="25">
+        <v>30</v>
+      </c>
+      <c r="B23" s="25"/>
+      <c r="C23" s="23">
         <v>-122.27715219700001</v>
       </c>
-      <c r="D23" s="25">
+      <c r="D23" s="23">
         <v>37.806863805500001</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -2461,10 +2423,10 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="31">
-        <v>66.240399999999994</v>
+        <v>43</v>
+      </c>
+      <c r="B24" s="23">
+        <v>164.194113837</v>
       </c>
       <c r="C24" s="28"/>
       <c r="D24" s="28"/>
@@ -2472,10 +2434,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" s="31">
-        <v>74.165999999999997</v>
+        <v>53</v>
+      </c>
+      <c r="B25" s="32">
+        <v>68.995648208000006</v>
       </c>
       <c r="C25" s="28"/>
       <c r="D25" s="28"/>
@@ -2535,7 +2497,7 @@
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView zoomScale="74" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B2" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2549,13 +2511,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="A1" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="1:9" ht="58.5" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
@@ -2579,22 +2541,22 @@
         <v>12</v>
       </c>
       <c r="B3" s="25"/>
-      <c r="C3" s="25">
+      <c r="C3" s="23">
         <v>-122.433080914</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="23">
         <v>37.784603918199998</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="32">
-        <v>63.808516453899998</v>
+      <c r="B4" s="33">
+        <v>68.452786639700008</v>
       </c>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
@@ -2604,23 +2566,23 @@
       <c r="A5" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="25">
+      <c r="B5" s="36"/>
+      <c r="C5" s="23">
         <v>-122.42164660500001</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="23">
         <v>37.785523699099997</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="32">
-        <v>63.952699999999993</v>
+      <c r="B6" s="33">
+        <v>59.723948348099995</v>
       </c>
       <c r="C6" s="28"/>
       <c r="D6" s="28"/>
@@ -2631,17 +2593,17 @@
     </row>
     <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="36"/>
+      <c r="C7" s="23">
+        <v>-122.415320231</v>
+      </c>
+      <c r="D7" s="23">
+        <v>37.780745770300001</v>
+      </c>
+      <c r="E7" s="29" t="s">
         <v>39</v>
-      </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="25">
-        <v>-122.415320231</v>
-      </c>
-      <c r="D7" s="25">
-        <v>37.780745770300001</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>40</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="27"/>
@@ -2651,8 +2613,8 @@
       <c r="A8" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="32">
-        <v>39.630900000000004</v>
+      <c r="B8" s="33">
+        <v>38.561802743299999</v>
       </c>
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
@@ -2664,17 +2626,17 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="25">
+        <v>37</v>
+      </c>
+      <c r="B9" s="36"/>
+      <c r="C9" s="23">
         <v>-122.411633937</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="23">
         <v>37.776254954400002</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="27"/>
@@ -2684,8 +2646,8 @@
       <c r="A10" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="32">
-        <v>68.506299999999996</v>
+      <c r="B10" s="33">
+        <v>68.66704844169999</v>
       </c>
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
@@ -2697,17 +2659,17 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="25">
+        <v>36</v>
+      </c>
+      <c r="B11" s="36"/>
+      <c r="C11" s="23">
         <v>-122.401849454</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D11" s="23">
         <v>37.7741419476</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="27"/>
@@ -2717,8 +2679,8 @@
       <c r="A12" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="32">
-        <v>49.523600000000009</v>
+      <c r="B12" s="33">
+        <v>50.129268556999996</v>
       </c>
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
@@ -2730,17 +2692,17 @@
     </row>
     <row r="13" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="25">
+        <v>35</v>
+      </c>
+      <c r="B13" s="36"/>
+      <c r="C13" s="23">
         <v>-122.39536519000001</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="23">
         <v>37.779278226599999</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="27"/>
@@ -2750,8 +2712,8 @@
       <c r="A14" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="32">
-        <v>588.87530000000004</v>
+      <c r="B14" s="33">
+        <v>579.35369184800004</v>
       </c>
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
@@ -2766,14 +2728,14 @@
         <v>16</v>
       </c>
       <c r="B15" s="35"/>
-      <c r="C15" s="25">
+      <c r="C15" s="23">
         <v>-122.29152271300001</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D15" s="23">
         <v>37.780104802700002</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -2783,8 +2745,8 @@
       <c r="A16" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="32">
-        <v>187.302316918</v>
+      <c r="B16" s="27">
+        <v>199.02173815800001</v>
       </c>
       <c r="C16" s="28"/>
       <c r="D16" s="28"/>
@@ -2797,15 +2759,15 @@
       <c r="A17" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="25">
+      <c r="B17" s="25"/>
+      <c r="C17" s="23">
         <v>-122.275174114</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D17" s="23">
         <v>37.795151707800002</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -2815,8 +2777,8 @@
       <c r="A18" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="32">
-        <v>64.382808210799993</v>
+      <c r="B18" s="27">
+        <v>66.389600922669999</v>
       </c>
       <c r="C18" s="28"/>
       <c r="D18" s="28"/>
@@ -2829,15 +2791,15 @@
       <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="5">
+      <c r="B19" s="25"/>
+      <c r="C19" s="23">
         <v>-122.26929957599999</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="23">
         <v>37.805076731200003</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -2847,8 +2809,8 @@
       <c r="A20" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="32">
-        <v>176.63898822600001</v>
+      <c r="B20" s="27">
+        <v>176.901502604</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -2861,8 +2823,8 @@
       <c r="A21" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="37">
-        <v>329.05456725599998</v>
+      <c r="B21" s="12">
+        <v>317.06451135100002</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
@@ -2897,7 +2859,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B35" s="23">
         <v>0.66240399999999999</v>
@@ -2906,7 +2868,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B36" s="23">
         <v>1.020969</v>
@@ -2915,7 +2877,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B37" s="23">
         <v>2.163008</v>
@@ -2924,7 +2886,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B38" s="23">
         <v>0.74165999999999999</v>
